--- a/stats_df_f.xlsx
+++ b/stats_df_f.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>N</t>
   </si>
@@ -38,6 +38,9 @@
   </si>
   <si>
     <t>Maximum</t>
+  </si>
+  <si>
+    <t>percenterrors</t>
   </si>
   <si>
     <t>meanRT</t>
@@ -419,7 +422,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I9"/>
+  <dimension ref="A1:I10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -456,28 +459,28 @@
         <v>8</v>
       </c>
       <c r="B2">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="C2">
-        <v>583.5700000000001</v>
+        <v>2.21</v>
       </c>
       <c r="D2">
-        <v>10.98</v>
+        <v>0.41</v>
       </c>
       <c r="E2">
-        <v>547.01</v>
+        <v>1.67</v>
       </c>
       <c r="F2">
-        <v>140.66</v>
+        <v>5.18</v>
       </c>
       <c r="G2">
-        <v>19784.58</v>
+        <v>26.8</v>
       </c>
       <c r="H2">
-        <v>386.76</v>
+        <v>0</v>
       </c>
       <c r="I2">
-        <v>1069.44</v>
+        <v>52.5</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -485,28 +488,28 @@
         <v>9</v>
       </c>
       <c r="B3">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="C3">
-        <v>2.46</v>
+        <v>577.0599999999999</v>
       </c>
       <c r="D3">
-        <v>0.78</v>
+        <v>10.48</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <v>545.88</v>
       </c>
       <c r="F3">
-        <v>9.98</v>
+        <v>131.7</v>
       </c>
       <c r="G3">
-        <v>99.64</v>
+        <v>17345.93</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>386.76</v>
       </c>
       <c r="I3">
-        <v>93.33</v>
+        <v>979.67</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -514,28 +517,28 @@
         <v>10</v>
       </c>
       <c r="B4">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="C4">
-        <v>557.8</v>
+        <v>1.22</v>
       </c>
       <c r="D4">
-        <v>11.21</v>
+        <v>0.29</v>
       </c>
       <c r="E4">
-        <v>518.08</v>
+        <v>0</v>
       </c>
       <c r="F4">
-        <v>143.51</v>
+        <v>3.69</v>
       </c>
       <c r="G4">
-        <v>20594.34</v>
+        <v>13.64</v>
       </c>
       <c r="H4">
-        <v>359.33</v>
+        <v>0</v>
       </c>
       <c r="I4">
-        <v>1127.3</v>
+        <v>33.33</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -543,28 +546,28 @@
         <v>11</v>
       </c>
       <c r="B5">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="C5">
-        <v>4.53</v>
+        <v>552.7</v>
       </c>
       <c r="D5">
-        <v>0.83</v>
+        <v>10.78</v>
       </c>
       <c r="E5">
-        <v>0</v>
+        <v>517.16</v>
       </c>
       <c r="F5">
-        <v>10.6</v>
+        <v>135.47</v>
       </c>
       <c r="G5">
-        <v>112.46</v>
+        <v>18352.57</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>359.33</v>
       </c>
       <c r="I5">
-        <v>76.67</v>
+        <v>1039.2</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -572,28 +575,28 @@
         <v>12</v>
       </c>
       <c r="B6">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="C6">
-        <v>608.52</v>
+        <v>3.21</v>
       </c>
       <c r="D6">
-        <v>11.38</v>
+        <v>0.57</v>
       </c>
       <c r="E6">
-        <v>574.1</v>
+        <v>0</v>
       </c>
       <c r="F6">
-        <v>145.7</v>
+        <v>7.19</v>
       </c>
       <c r="G6">
-        <v>21228.56</v>
+        <v>51.68</v>
       </c>
       <c r="H6">
-        <v>386.59</v>
+        <v>0</v>
       </c>
       <c r="I6">
-        <v>1031.11</v>
+        <v>73.68000000000001</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -601,28 +604,28 @@
         <v>13</v>
       </c>
       <c r="B7">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="C7">
-        <v>0.05</v>
+        <v>603.45</v>
       </c>
       <c r="D7">
-        <v>0.02</v>
+        <v>11.57</v>
       </c>
       <c r="E7">
-        <v>0</v>
+        <v>572.36</v>
       </c>
       <c r="F7">
-        <v>0.22</v>
+        <v>145.47</v>
       </c>
       <c r="G7">
-        <v>0.05</v>
+        <v>21160.54</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>386.59</v>
       </c>
       <c r="I7">
-        <v>1</v>
+        <v>1261.4</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -630,28 +633,28 @@
         <v>14</v>
       </c>
       <c r="B8">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="C8">
-        <v>0.98</v>
+        <v>0</v>
       </c>
       <c r="D8">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F8">
-        <v>0.11</v>
+        <v>0</v>
       </c>
       <c r="G8">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="H8">
-        <v>0.62</v>
+        <v>0</v>
       </c>
       <c r="I8">
-        <v>2.11</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -659,16 +662,16 @@
         <v>15</v>
       </c>
       <c r="B9">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="C9">
-        <v>0.89</v>
+        <v>0.98</v>
       </c>
       <c r="D9">
         <v>0.01</v>
       </c>
       <c r="E9">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="F9">
         <v>0.08</v>
@@ -677,9 +680,38 @@
         <v>0.01</v>
       </c>
       <c r="H9">
-        <v>0.36</v>
+        <v>0.13</v>
       </c>
       <c r="I9">
+        <v>1.07</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B10">
+        <v>158</v>
+      </c>
+      <c r="C10">
+        <v>0.88</v>
+      </c>
+      <c r="D10">
+        <v>0.01</v>
+      </c>
+      <c r="E10">
+        <v>0.9</v>
+      </c>
+      <c r="F10">
+        <v>0.09</v>
+      </c>
+      <c r="G10">
+        <v>0.01</v>
+      </c>
+      <c r="H10">
+        <v>0.35</v>
+      </c>
+      <c r="I10">
         <v>1</v>
       </c>
     </row>

--- a/stats_df_f.xlsx
+++ b/stats_df_f.xlsx
@@ -459,28 +459,28 @@
         <v>8</v>
       </c>
       <c r="B2">
-        <v>158</v>
+        <v>91</v>
       </c>
       <c r="C2">
-        <v>2.21</v>
+        <v>2.33</v>
       </c>
       <c r="D2">
-        <v>0.41</v>
+        <v>0.68</v>
       </c>
       <c r="E2">
-        <v>1.67</v>
+        <v>0</v>
       </c>
       <c r="F2">
-        <v>5.18</v>
+        <v>6.46</v>
       </c>
       <c r="G2">
-        <v>26.8</v>
+        <v>41.72</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>52.5</v>
+        <v>45</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -488,28 +488,28 @@
         <v>9</v>
       </c>
       <c r="B3">
-        <v>158</v>
+        <v>91</v>
       </c>
       <c r="C3">
-        <v>577.0599999999999</v>
+        <v>561.55</v>
       </c>
       <c r="D3">
-        <v>10.48</v>
+        <v>12.52</v>
       </c>
       <c r="E3">
-        <v>545.88</v>
+        <v>540.5700000000001</v>
       </c>
       <c r="F3">
-        <v>131.7</v>
+        <v>119.46</v>
       </c>
       <c r="G3">
-        <v>17345.93</v>
+        <v>14271.8</v>
       </c>
       <c r="H3">
         <v>386.76</v>
       </c>
       <c r="I3">
-        <v>979.67</v>
+        <v>927.41</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -517,28 +517,28 @@
         <v>10</v>
       </c>
       <c r="B4">
-        <v>158</v>
+        <v>91</v>
       </c>
       <c r="C4">
-        <v>1.22</v>
+        <v>1.54</v>
       </c>
       <c r="D4">
-        <v>0.29</v>
+        <v>0.58</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>3.69</v>
+        <v>5.52</v>
       </c>
       <c r="G4">
-        <v>13.64</v>
+        <v>30.45</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>33.33</v>
+        <v>40</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -546,28 +546,28 @@
         <v>11</v>
       </c>
       <c r="B5">
-        <v>158</v>
+        <v>91</v>
       </c>
       <c r="C5">
-        <v>552.7</v>
+        <v>538.7</v>
       </c>
       <c r="D5">
-        <v>10.78</v>
+        <v>12.9</v>
       </c>
       <c r="E5">
-        <v>517.16</v>
+        <v>514.0700000000001</v>
       </c>
       <c r="F5">
-        <v>135.47</v>
+        <v>123.04</v>
       </c>
       <c r="G5">
-        <v>18352.57</v>
+        <v>15138.76</v>
       </c>
       <c r="H5">
         <v>359.33</v>
       </c>
       <c r="I5">
-        <v>1039.2</v>
+        <v>959.8</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -575,28 +575,28 @@
         <v>12</v>
       </c>
       <c r="B6">
-        <v>158</v>
+        <v>91</v>
       </c>
       <c r="C6">
-        <v>3.21</v>
+        <v>3.11</v>
       </c>
       <c r="D6">
-        <v>0.57</v>
+        <v>0.8</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>7.19</v>
+        <v>7.68</v>
       </c>
       <c r="G6">
-        <v>51.68</v>
+        <v>58.96</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>73.68000000000001</v>
+        <v>50</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -604,28 +604,28 @@
         <v>13</v>
       </c>
       <c r="B7">
-        <v>158</v>
+        <v>91</v>
       </c>
       <c r="C7">
-        <v>603.45</v>
+        <v>584.64</v>
       </c>
       <c r="D7">
-        <v>11.57</v>
+        <v>12.91</v>
       </c>
       <c r="E7">
-        <v>572.36</v>
+        <v>561.87</v>
       </c>
       <c r="F7">
-        <v>145.47</v>
+        <v>123.18</v>
       </c>
       <c r="G7">
-        <v>21160.54</v>
+        <v>15173.09</v>
       </c>
       <c r="H7">
         <v>386.59</v>
       </c>
       <c r="I7">
-        <v>1261.4</v>
+        <v>998.1799999999999</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -633,28 +633,28 @@
         <v>14</v>
       </c>
       <c r="B8">
-        <v>158</v>
+        <v>91</v>
       </c>
       <c r="C8">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="D8">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0</v>
+        <v>0.15</v>
       </c>
       <c r="G8">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -662,25 +662,25 @@
         <v>15</v>
       </c>
       <c r="B9">
-        <v>158</v>
+        <v>91</v>
       </c>
       <c r="C9">
         <v>0.98</v>
       </c>
       <c r="D9">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="E9">
         <v>1</v>
       </c>
       <c r="F9">
-        <v>0.08</v>
+        <v>0.04</v>
       </c>
       <c r="G9">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="H9">
-        <v>0.13</v>
+        <v>0.73</v>
       </c>
       <c r="I9">
         <v>1.07</v>
@@ -691,25 +691,25 @@
         <v>16</v>
       </c>
       <c r="B10">
-        <v>158</v>
+        <v>91</v>
       </c>
       <c r="C10">
-        <v>0.88</v>
+        <v>0.89</v>
       </c>
       <c r="D10">
         <v>0.01</v>
       </c>
       <c r="E10">
-        <v>0.9</v>
+        <v>0.91</v>
       </c>
       <c r="F10">
-        <v>0.09</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="G10">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="H10">
-        <v>0.35</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="I10">
         <v>1</v>
